--- a/doc/공동주택 현황.xlsx
+++ b/doc/공동주택 현황.xlsx
@@ -582,12 +582,12 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>bjdaddr</t>
+          <t>bjdkey</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>doraddr</t>
+          <t>dorokey</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">

--- a/doc/공동주택 현황.xlsx
+++ b/doc/공동주택 현황.xlsx
@@ -58291,7 +58291,7 @@
         <v>312765975</v>
       </c>
       <c r="V364" t="n">
-        <v>312765975</v>
+        <v>312765915</v>
       </c>
       <c r="W364" t="inlineStr">
         <is>
@@ -58303,7 +58303,11 @@
           <t>대림산업</t>
         </is>
       </c>
-      <c r="Y364" t="inlineStr"/>
+      <c r="Y364" t="inlineStr">
+        <is>
+          <t>cafe.naver.com/goodlucky</t>
+        </is>
+      </c>
       <c r="Z364" t="n">
         <v>16498.294</v>
       </c>

--- a/doc/공동주택 현황.xlsx
+++ b/doc/공동주택 현황.xlsx
@@ -32172,7 +32172,11 @@
           <t>용화마을태영데시앙2단지</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 마북동 620</t>
@@ -32183,11 +32187,27 @@
           <t>경기도 용인시 기흥구 구성로 44-5</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>분양</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>20031010</v>
+      </c>
+      <c r="M200" t="n">
+        <v>3</v>
+      </c>
       <c r="N200" t="n">
         <v>132</v>
       </c>
@@ -32208,13 +32228,17 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>태영</t>
+        </is>
+      </c>
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="n">
         <v>0</v>
       </c>
       <c r="AA200" t="n">
-        <v>0</v>
+        <v>14036.88</v>
       </c>
       <c r="AB200" t="n">
         <v>11195.844</v>
@@ -32781,17 +32805,27 @@
           <t>경기도 용인시 기흥구 마북로 218</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>분양</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr">
         <is>
           <t>개별난방</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>20101130</v>
       </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>3</v>
+      </c>
       <c r="N204" t="n">
         <v>110</v>
       </c>
@@ -32814,13 +32848,17 @@
       </c>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>대림산업</t>
+        </is>
+      </c>
       <c r="Y204" t="inlineStr"/>
       <c r="Z204" t="n">
         <v>0</v>
       </c>
       <c r="AA204" t="n">
-        <v>0</v>
+        <v>16271.84</v>
       </c>
       <c r="AB204" t="n">
         <v>13364.3166</v>
@@ -58703,7 +58741,11 @@
           <t>내대지마을푸르지오</t>
         </is>
       </c>
-      <c r="F367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G367" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1221</t>
@@ -58714,11 +58756,23 @@
           <t>경기도 용인시 수지구 죽전로 235</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>분양</t>
+        </is>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>20041029</v>
+      </c>
+      <c r="M367" t="n">
+        <v>2</v>
+      </c>
       <c r="N367" t="n">
         <v>142</v>
       </c>
@@ -58743,13 +58797,17 @@
         <v>318973642</v>
       </c>
       <c r="W367" t="inlineStr"/>
-      <c r="X367" t="inlineStr"/>
+      <c r="X367" t="inlineStr">
+        <is>
+          <t>대우건설</t>
+        </is>
+      </c>
       <c r="Y367" t="inlineStr"/>
       <c r="Z367" t="n">
         <v>0</v>
       </c>
       <c r="AA367" t="n">
-        <v>0</v>
+        <v>21133.86</v>
       </c>
       <c r="AB367" t="n">
         <v>17062.5354</v>
@@ -78399,7 +78457,11 @@
           <t>죽전 일성트루엘</t>
         </is>
       </c>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 보정동 1293</t>
@@ -78415,26 +78477,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
-      <c r="M500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L500" t="n">
+        <v>20101214</v>
+      </c>
+      <c r="M500" t="n">
+        <v>1</v>
+      </c>
       <c r="N500" t="n">
         <v>64</v>
       </c>
       <c r="O500" t="inlineStr"/>
-      <c r="P500" t="inlineStr"/>
-      <c r="Q500" t="inlineStr"/>
-      <c r="R500" t="inlineStr"/>
-      <c r="S500" t="inlineStr"/>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" t="n">
+        <v>32</v>
+      </c>
+      <c r="S500" t="n">
+        <v>32</v>
+      </c>
       <c r="T500" t="inlineStr"/>
       <c r="U500" t="inlineStr"/>
       <c r="V500" t="inlineStr"/>
       <c r="W500" t="inlineStr"/>
-      <c r="X500" t="inlineStr"/>
+      <c r="X500" t="inlineStr">
+        <is>
+          <t>일성건설</t>
+        </is>
+      </c>
       <c r="Y500" t="inlineStr"/>
       <c r="Z500" t="inlineStr"/>
-      <c r="AA500" t="inlineStr"/>
+      <c r="AA500" t="n">
+        <v>10026.08</v>
+      </c>
       <c r="AB500" t="inlineStr"/>
       <c r="AC500" t="inlineStr">
         <is>
@@ -79915,7 +80003,11 @@
           <t>성산마을 남광하우스토리</t>
         </is>
       </c>
-      <c r="F516" t="inlineStr"/>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>연립</t>
+        </is>
+      </c>
       <c r="G516" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 중동 869</t>
@@ -79931,18 +80023,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
-      <c r="M516" t="inlineStr"/>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L516" t="n">
+        <v>20071101</v>
+      </c>
+      <c r="M516" t="n">
+        <v>9</v>
+      </c>
       <c r="N516" t="n">
         <v>134</v>
       </c>
       <c r="O516" t="inlineStr"/>
-      <c r="P516" t="inlineStr"/>
-      <c r="Q516" t="inlineStr"/>
-      <c r="R516" t="inlineStr"/>
-      <c r="S516" t="inlineStr"/>
+      <c r="P516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
+      <c r="S516" t="n">
+        <v>134</v>
+      </c>
       <c r="T516" t="inlineStr"/>
       <c r="U516" t="inlineStr">
         <is>
@@ -79951,10 +80063,16 @@
       </c>
       <c r="V516" t="inlineStr"/>
       <c r="W516" t="inlineStr"/>
-      <c r="X516" t="inlineStr"/>
+      <c r="X516" t="inlineStr">
+        <is>
+          <t>남광토건</t>
+        </is>
+      </c>
       <c r="Y516" t="inlineStr"/>
       <c r="Z516" t="inlineStr"/>
-      <c r="AA516" t="inlineStr"/>
+      <c r="AA516" t="n">
+        <v>28627.75</v>
+      </c>
       <c r="AB516" t="inlineStr"/>
       <c r="AC516" t="inlineStr">
         <is>
@@ -80012,7 +80130,11 @@
           <t>성산마을 카운티스</t>
         </is>
       </c>
-      <c r="F517" t="inlineStr"/>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>연립</t>
+        </is>
+      </c>
       <c r="G517" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 중동 922</t>
@@ -80028,26 +80150,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
-      <c r="M517" t="inlineStr"/>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L517" t="n">
+        <v>20061026</v>
+      </c>
+      <c r="M517" t="n">
+        <v>8</v>
+      </c>
       <c r="N517" t="n">
         <v>96</v>
       </c>
       <c r="O517" t="inlineStr"/>
-      <c r="P517" t="inlineStr"/>
-      <c r="Q517" t="inlineStr"/>
-      <c r="R517" t="inlineStr"/>
-      <c r="S517" t="inlineStr"/>
+      <c r="P517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
+      <c r="S517" t="n">
+        <v>96</v>
+      </c>
       <c r="T517" t="inlineStr"/>
       <c r="U517" t="inlineStr"/>
       <c r="V517" t="inlineStr"/>
       <c r="W517" t="inlineStr"/>
-      <c r="X517" t="inlineStr"/>
+      <c r="X517" t="inlineStr">
+        <is>
+          <t>세계토건</t>
+        </is>
+      </c>
       <c r="Y517" t="inlineStr"/>
       <c r="Z517" t="inlineStr"/>
-      <c r="AA517" t="inlineStr"/>
+      <c r="AA517" t="n">
+        <v>17560.44</v>
+      </c>
       <c r="AB517" t="inlineStr"/>
       <c r="AC517" t="inlineStr">
         <is>
@@ -80396,7 +80544,11 @@
           <t>용인 수지 휴엔하임</t>
         </is>
       </c>
-      <c r="F521" t="inlineStr"/>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G521" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 상현동 1201</t>
@@ -80412,26 +80564,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
-      <c r="M521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L521" t="n">
+        <v>20160411</v>
+      </c>
+      <c r="M521" t="n">
+        <v>2</v>
+      </c>
       <c r="N521" t="n">
         <v>112</v>
       </c>
       <c r="O521" t="inlineStr"/>
-      <c r="P521" t="inlineStr"/>
-      <c r="Q521" t="inlineStr"/>
-      <c r="R521" t="inlineStr"/>
-      <c r="S521" t="inlineStr"/>
+      <c r="P521" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
+      <c r="S521" t="n">
+        <v>0</v>
+      </c>
       <c r="T521" t="inlineStr"/>
       <c r="U521" t="inlineStr"/>
       <c r="V521" t="inlineStr"/>
       <c r="W521" t="inlineStr"/>
-      <c r="X521" t="inlineStr"/>
+      <c r="X521" t="inlineStr">
+        <is>
+          <t>신구건설</t>
+        </is>
+      </c>
       <c r="Y521" t="inlineStr"/>
       <c r="Z521" t="inlineStr"/>
-      <c r="AA521" t="inlineStr"/>
+      <c r="AA521" t="n">
+        <v>9436</v>
+      </c>
       <c r="AB521" t="inlineStr"/>
       <c r="AC521" t="inlineStr">
         <is>
@@ -80679,7 +80857,11 @@
           <t>내대지마을 우미이노스빌(601동)</t>
         </is>
       </c>
-      <c r="F524" t="inlineStr"/>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G524" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1194</t>
@@ -80695,18 +80877,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
-      <c r="M524" t="inlineStr"/>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L524" t="n">
+        <v>20041220</v>
+      </c>
+      <c r="M524" t="n">
+        <v>1</v>
+      </c>
       <c r="N524" t="n">
         <v>59</v>
       </c>
       <c r="O524" t="inlineStr"/>
-      <c r="P524" t="inlineStr"/>
-      <c r="Q524" t="inlineStr"/>
-      <c r="R524" t="inlineStr"/>
-      <c r="S524" t="inlineStr"/>
+      <c r="P524" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
+      <c r="S524" t="n">
+        <v>0</v>
+      </c>
       <c r="T524" t="inlineStr"/>
       <c r="U524" t="inlineStr">
         <is>
@@ -80715,10 +80917,16 @@
       </c>
       <c r="V524" t="inlineStr"/>
       <c r="W524" t="inlineStr"/>
-      <c r="X524" t="inlineStr"/>
+      <c r="X524" t="inlineStr">
+        <is>
+          <t>우미산업개발</t>
+        </is>
+      </c>
       <c r="Y524" t="inlineStr"/>
       <c r="Z524" t="inlineStr"/>
-      <c r="AA524" t="inlineStr"/>
+      <c r="AA524" t="n">
+        <v>4973.11</v>
+      </c>
       <c r="AB524" t="inlineStr"/>
       <c r="AC524" t="inlineStr">
         <is>
@@ -80776,7 +80984,11 @@
           <t>새터마을 푸르지오아파트</t>
         </is>
       </c>
-      <c r="F525" t="inlineStr"/>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G525" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1198</t>
@@ -80792,18 +81004,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
-      <c r="M525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L525" t="n">
+        <v>20041228</v>
+      </c>
+      <c r="M525" t="n">
+        <v>2</v>
+      </c>
       <c r="N525" t="n">
         <v>79</v>
       </c>
       <c r="O525" t="inlineStr"/>
-      <c r="P525" t="inlineStr"/>
-      <c r="Q525" t="inlineStr"/>
-      <c r="R525" t="inlineStr"/>
-      <c r="S525" t="inlineStr"/>
+      <c r="P525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R525" t="n">
+        <v>79</v>
+      </c>
+      <c r="S525" t="n">
+        <v>0</v>
+      </c>
       <c r="T525" t="inlineStr"/>
       <c r="U525" t="inlineStr">
         <is>
@@ -80812,10 +81044,16 @@
       </c>
       <c r="V525" t="inlineStr"/>
       <c r="W525" t="inlineStr"/>
-      <c r="X525" t="inlineStr"/>
+      <c r="X525" t="inlineStr">
+        <is>
+          <t>대우건설</t>
+        </is>
+      </c>
       <c r="Y525" t="inlineStr"/>
       <c r="Z525" t="inlineStr"/>
-      <c r="AA525" t="inlineStr"/>
+      <c r="AA525" t="n">
+        <v>11768.63</v>
+      </c>
       <c r="AB525" t="inlineStr"/>
       <c r="AC525" t="inlineStr">
         <is>
@@ -80873,7 +81111,11 @@
           <t>새터마을 우미이노스빌(101동) 죽전3차</t>
         </is>
       </c>
-      <c r="F526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G526" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1211</t>
@@ -80889,18 +81131,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
-      <c r="M526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L526" t="n">
+        <v>20041220</v>
+      </c>
+      <c r="M526" t="n">
+        <v>1</v>
+      </c>
       <c r="N526" t="n">
         <v>56</v>
       </c>
       <c r="O526" t="inlineStr"/>
-      <c r="P526" t="inlineStr"/>
-      <c r="Q526" t="inlineStr"/>
-      <c r="R526" t="inlineStr"/>
-      <c r="S526" t="inlineStr"/>
+      <c r="P526" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
+      <c r="S526" t="n">
+        <v>0</v>
+      </c>
       <c r="T526" t="inlineStr"/>
       <c r="U526" t="inlineStr">
         <is>
@@ -80909,10 +81171,16 @@
       </c>
       <c r="V526" t="inlineStr"/>
       <c r="W526" t="inlineStr"/>
-      <c r="X526" t="inlineStr"/>
+      <c r="X526" t="inlineStr">
+        <is>
+          <t>우미산업개발</t>
+        </is>
+      </c>
       <c r="Y526" t="inlineStr"/>
       <c r="Z526" t="inlineStr"/>
-      <c r="AA526" t="inlineStr"/>
+      <c r="AA526" t="n">
+        <v>4762.24</v>
+      </c>
       <c r="AB526" t="inlineStr"/>
       <c r="AC526" t="inlineStr">
         <is>
@@ -81067,7 +81335,11 @@
           <t>내대지마을 힐스테이트</t>
         </is>
       </c>
-      <c r="F528" t="inlineStr"/>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G528" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1373</t>
@@ -81083,18 +81355,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
-      <c r="M528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>20040630</v>
+      </c>
+      <c r="M528" t="n">
+        <v>3</v>
+      </c>
       <c r="N528" t="n">
         <v>120</v>
       </c>
       <c r="O528" t="inlineStr"/>
-      <c r="P528" t="inlineStr"/>
-      <c r="Q528" t="inlineStr"/>
-      <c r="R528" t="inlineStr"/>
-      <c r="S528" t="inlineStr"/>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" t="n">
+        <v>120</v>
+      </c>
+      <c r="S528" t="n">
+        <v>0</v>
+      </c>
       <c r="T528" t="inlineStr"/>
       <c r="U528" t="inlineStr">
         <is>
@@ -81103,10 +81395,16 @@
       </c>
       <c r="V528" t="inlineStr"/>
       <c r="W528" t="inlineStr"/>
-      <c r="X528" t="inlineStr"/>
+      <c r="X528" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
       <c r="Y528" t="inlineStr"/>
       <c r="Z528" t="inlineStr"/>
-      <c r="AA528" t="inlineStr"/>
+      <c r="AA528" t="n">
+        <v>18462</v>
+      </c>
       <c r="AB528" t="inlineStr"/>
       <c r="AC528" t="inlineStr">
         <is>
@@ -81164,7 +81462,11 @@
           <t>내대지마을 광명샤인빌</t>
         </is>
       </c>
-      <c r="F529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G529" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1380</t>
@@ -81180,18 +81482,38 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
-      <c r="M529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>20051010</v>
+      </c>
+      <c r="M529" t="n">
+        <v>2</v>
+      </c>
       <c r="N529" t="n">
         <v>91</v>
       </c>
       <c r="O529" t="inlineStr"/>
-      <c r="P529" t="inlineStr"/>
-      <c r="Q529" t="inlineStr"/>
-      <c r="R529" t="inlineStr"/>
-      <c r="S529" t="inlineStr"/>
+      <c r="P529" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
+      <c r="S529" t="n">
+        <v>0</v>
+      </c>
       <c r="T529" t="inlineStr"/>
       <c r="U529" t="inlineStr">
         <is>
@@ -81200,10 +81522,16 @@
       </c>
       <c r="V529" t="inlineStr"/>
       <c r="W529" t="inlineStr"/>
-      <c r="X529" t="inlineStr"/>
+      <c r="X529" t="inlineStr">
+        <is>
+          <t>광명주택</t>
+        </is>
+      </c>
       <c r="Y529" t="inlineStr"/>
       <c r="Z529" t="inlineStr"/>
-      <c r="AA529" t="inlineStr"/>
+      <c r="AA529" t="n">
+        <v>7505.68</v>
+      </c>
       <c r="AB529" t="inlineStr"/>
       <c r="AC529" t="inlineStr">
         <is>
@@ -81548,7 +81876,11 @@
           <t>죽전역 월드메르디앙</t>
         </is>
       </c>
-      <c r="F533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1488</t>
@@ -81564,26 +81896,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
-      <c r="M533" t="inlineStr"/>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>지역난방</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L533" t="n">
+        <v>20100527</v>
+      </c>
+      <c r="M533" t="n">
+        <v>2</v>
+      </c>
       <c r="N533" t="n">
         <v>104</v>
       </c>
       <c r="O533" t="inlineStr"/>
-      <c r="P533" t="inlineStr"/>
-      <c r="Q533" t="inlineStr"/>
-      <c r="R533" t="inlineStr"/>
-      <c r="S533" t="inlineStr"/>
+      <c r="P533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R533" t="n">
+        <v>85</v>
+      </c>
+      <c r="S533" t="n">
+        <v>19</v>
+      </c>
       <c r="T533" t="inlineStr"/>
       <c r="U533" t="inlineStr"/>
       <c r="V533" t="inlineStr"/>
       <c r="W533" t="inlineStr"/>
-      <c r="X533" t="inlineStr"/>
+      <c r="X533" t="inlineStr">
+        <is>
+          <t>월드건설</t>
+        </is>
+      </c>
       <c r="Y533" t="inlineStr"/>
       <c r="Z533" t="inlineStr"/>
-      <c r="AA533" t="inlineStr"/>
+      <c r="AA533" t="n">
+        <v>16679.12</v>
+      </c>
       <c r="AB533" t="inlineStr"/>
       <c r="AC533" t="inlineStr">
         <is>
@@ -85967,7 +86325,11 @@
           <t>내대지마을 주공2단지아파트</t>
         </is>
       </c>
-      <c r="F580" t="inlineStr"/>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G580" t="inlineStr">
         <is>
           <t>경기도 용인시 수지구 죽전동 1226</t>
@@ -85980,21 +86342,41 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>임대</t>
-        </is>
-      </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
-      <c r="M580" t="inlineStr"/>
+          <t>국민임대</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>개별난방</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>복도식</t>
+        </is>
+      </c>
+      <c r="L580" t="n">
+        <v>20050720</v>
+      </c>
+      <c r="M580" t="n">
+        <v>2</v>
+      </c>
       <c r="N580" t="n">
         <v>136</v>
       </c>
       <c r="O580" t="inlineStr"/>
-      <c r="P580" t="inlineStr"/>
-      <c r="Q580" t="inlineStr"/>
-      <c r="R580" t="inlineStr"/>
-      <c r="S580" t="inlineStr"/>
+      <c r="P580" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
+      <c r="S580" t="n">
+        <v>0</v>
+      </c>
       <c r="T580" t="inlineStr"/>
       <c r="U580" t="inlineStr">
         <is>
@@ -86006,7 +86388,9 @@
       <c r="X580" t="inlineStr"/>
       <c r="Y580" t="inlineStr"/>
       <c r="Z580" t="inlineStr"/>
-      <c r="AA580" t="inlineStr"/>
+      <c r="AA580" t="n">
+        <v>8272.879999999999</v>
+      </c>
       <c r="AB580" t="inlineStr"/>
       <c r="AC580" t="inlineStr">
         <is>
@@ -86157,7 +86541,11 @@
           <t>보정대림e편한세상1차</t>
         </is>
       </c>
-      <c r="F582" t="inlineStr"/>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G582" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 보정동 911-1</t>
@@ -86173,26 +86561,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
-      <c r="M582" t="inlineStr"/>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>개별난방</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>20020321</v>
+      </c>
+      <c r="M582" t="n">
+        <v>13</v>
+      </c>
       <c r="N582" t="n">
         <v>232</v>
       </c>
       <c r="O582" t="inlineStr"/>
-      <c r="P582" t="inlineStr"/>
-      <c r="Q582" t="inlineStr"/>
-      <c r="R582" t="inlineStr"/>
-      <c r="S582" t="inlineStr"/>
+      <c r="P582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
+      <c r="S582" t="n">
+        <v>232</v>
+      </c>
       <c r="T582" t="inlineStr"/>
       <c r="U582" t="inlineStr"/>
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
-      <c r="X582" t="inlineStr"/>
+      <c r="X582" t="inlineStr">
+        <is>
+          <t>대림산업</t>
+        </is>
+      </c>
       <c r="Y582" t="inlineStr"/>
       <c r="Z582" t="inlineStr"/>
-      <c r="AA582" t="inlineStr"/>
+      <c r="AA582" t="n">
+        <v>41937.71</v>
+      </c>
       <c r="AB582" t="inlineStr"/>
       <c r="AC582" t="inlineStr">
         <is>
@@ -86250,7 +86664,11 @@
           <t>보정대림e편한세상2차</t>
         </is>
       </c>
-      <c r="F583" t="inlineStr"/>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>아파트</t>
+        </is>
+      </c>
       <c r="G583" t="inlineStr">
         <is>
           <t>경기도 용인시 기흥구 보정동 909-5</t>
@@ -86266,26 +86684,52 @@
           <t>분양</t>
         </is>
       </c>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
-      <c r="M583" t="inlineStr"/>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>개별난방</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>계단식</t>
+        </is>
+      </c>
+      <c r="L583" t="n">
+        <v>20050831</v>
+      </c>
+      <c r="M583" t="n">
+        <v>7</v>
+      </c>
       <c r="N583" t="n">
         <v>133</v>
       </c>
       <c r="O583" t="inlineStr"/>
-      <c r="P583" t="inlineStr"/>
-      <c r="Q583" t="inlineStr"/>
-      <c r="R583" t="inlineStr"/>
-      <c r="S583" t="inlineStr"/>
+      <c r="P583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
+      <c r="S583" t="n">
+        <v>133</v>
+      </c>
       <c r="T583" t="inlineStr"/>
       <c r="U583" t="inlineStr"/>
       <c r="V583" t="inlineStr"/>
       <c r="W583" t="inlineStr"/>
-      <c r="X583" t="inlineStr"/>
+      <c r="X583" t="inlineStr">
+        <is>
+          <t>삼호</t>
+        </is>
+      </c>
       <c r="Y583" t="inlineStr"/>
       <c r="Z583" t="inlineStr"/>
-      <c r="AA583" t="inlineStr"/>
+      <c r="AA583" t="n">
+        <v>24103.95</v>
+      </c>
       <c r="AB583" t="inlineStr"/>
       <c r="AC583" t="inlineStr">
         <is>
